--- a/Q129_diagrams.xlsx
+++ b/Q129_diagrams.xlsx
@@ -93,10 +93,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,58 +321,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.229508196721311</c:v>
+                  <c:v>0.229508197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.485245901639344</c:v>
+                  <c:v>0.485245902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0950819672131148</c:v>
+                  <c:v>0.095081967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00327868852459016</c:v>
+                  <c:v>0.003278689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0688524590163934</c:v>
+                  <c:v>0.068852459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0491803278688525</c:v>
+                  <c:v>0.049180328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.527868852459016</c:v>
+                  <c:v>0.527868852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.229508196721311</c:v>
+                  <c:v>0.229508197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0622950819672131</c:v>
+                  <c:v>0.062295082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0327868852459016</c:v>
+                  <c:v>0.032786885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.436065573770492</c:v>
+                  <c:v>0.436065574</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.472131147540984</c:v>
+                  <c:v>0.472131148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00655737704918033</c:v>
+                  <c:v>0.006557377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.101639344262295</c:v>
+                  <c:v>0.101639344</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.216393442622951</c:v>
+                  <c:v>0.216393443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.108196721311475</c:v>
+                  <c:v>0.108196721</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00983606557377049</c:v>
+                  <c:v>0.009836066</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0131147540983607</c:v>
+                  <c:v>0.013114754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,58 +471,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.390243902439024</c:v>
+                  <c:v>0.390243902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.268292682926829</c:v>
+                  <c:v>0.268292683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0439024390243902</c:v>
+                  <c:v>0.043902439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.263414634146341</c:v>
+                  <c:v>0.263414634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.229268292682927</c:v>
+                  <c:v>0.229268293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0878048780487805</c:v>
+                  <c:v>0.087804878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64390243902439</c:v>
+                  <c:v>0.643902439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.136585365853659</c:v>
+                  <c:v>0.136585366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11219512195122</c:v>
+                  <c:v>0.112195122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0439024390243902</c:v>
+                  <c:v>0.043902439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.721951219512195</c:v>
+                  <c:v>0.72195122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.448780487804878</c:v>
+                  <c:v>0.448780488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0487804878048781</c:v>
+                  <c:v>0.048780488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.126829268292683</c:v>
+                  <c:v>0.126829268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24390243902439</c:v>
+                  <c:v>0.243902439</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24390243902439</c:v>
+                  <c:v>0.243902439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0439024390243902</c:v>
+                  <c:v>0.043902439</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0536585365853659</c:v>
+                  <c:v>0.053658537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,11 +538,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2090639712"/>
-        <c:axId val="-2090741424"/>
+        <c:axId val="-2134270144"/>
+        <c:axId val="-2099884912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090639712"/>
+        <c:axId val="-2134270144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090741424"/>
+        <c:crossAx val="-2099884912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090741424"/>
+        <c:axId val="-2099884912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090639712"/>
+        <c:crossAx val="-2134270144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1567,266 +1575,267 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.22950819672131101</v>
-      </c>
-      <c r="D2">
-        <v>0.39024390243902402</v>
+      <c r="C2" s="1">
+        <v>0.229508197</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.39024390199999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.485245901639344</v>
-      </c>
-      <c r="D3">
-        <v>0.26829268292682901</v>
+      <c r="C3" s="1">
+        <v>0.48524590200000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.26829268299999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>9.5081967213114807E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.39024390243902E-2</v>
+      <c r="C4" s="1">
+        <v>9.5081967000000003E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.3902439000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>3.27868852459016E-3</v>
-      </c>
-      <c r="D5">
-        <v>0.26341463414634098</v>
+      <c r="C5" s="1">
+        <v>3.278689E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.26341463399999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>6.8852459016393405E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.22926829268292701</v>
+      <c r="C6" s="1">
+        <v>6.8852459000000005E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.22926829300000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>4.91803278688525E-2</v>
-      </c>
-      <c r="D7">
-        <v>8.7804878048780496E-2</v>
+      <c r="C7" s="1">
+        <v>4.9180328000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.7804878000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>0.52786885245901605</v>
-      </c>
-      <c r="D8">
-        <v>0.64390243902439004</v>
+      <c r="C8" s="1">
+        <v>0.527868852</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.64390243899999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>0.22950819672131101</v>
-      </c>
-      <c r="D9">
-        <v>0.13658536585365899</v>
+      <c r="C9" s="1">
+        <v>0.229508197</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.13658536600000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>6.2295081967213103E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.11219512195122</v>
+      <c r="C10" s="1">
+        <v>6.2295082000000002E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.11219512199999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>3.2786885245901599E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.39024390243902E-2</v>
+      <c r="C11" s="1">
+        <v>3.2786885000000002E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.3902439000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0.43606557377049199</v>
-      </c>
-      <c r="D12">
-        <v>0.72195121951219499</v>
+      <c r="C12" s="1">
+        <v>0.43606557400000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.72195122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>0.47213114754098401</v>
-      </c>
-      <c r="D13">
-        <v>0.448780487804878</v>
+      <c r="C13" s="1">
+        <v>0.472131148</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.44878048799999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>6.5573770491803296E-3</v>
-      </c>
-      <c r="D14">
-        <v>4.8780487804878099E-2</v>
+      <c r="C14" s="1">
+        <v>6.5573769999999997E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.8780487999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>0.101639344262295</v>
-      </c>
-      <c r="D15">
-        <v>0.12682926829268301</v>
+      <c r="C15" s="1">
+        <v>0.10163934400000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.126829268</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>0.21639344262295099</v>
-      </c>
-      <c r="D16">
-        <v>0.24390243902438999</v>
+      <c r="C16" s="1">
+        <v>0.21639344299999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.243902439</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>0.10819672131147499</v>
-      </c>
-      <c r="D17">
-        <v>0.24390243902438999</v>
+      <c r="C17" s="1">
+        <v>0.108196721</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.243902439</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>9.8360655737704892E-3</v>
-      </c>
-      <c r="D18">
-        <v>4.39024390243902E-2</v>
+      <c r="C18" s="1">
+        <v>9.8360659999999992E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.3902439000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>1.3114754098360701E-2</v>
-      </c>
-      <c r="D19">
-        <v>5.3658536585365901E-2</v>
+      <c r="C19" s="1">
+        <v>1.3114753999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.3658536999999999E-2</v>
       </c>
     </row>
   </sheetData>
